--- a/flask-project/users.xlsx
+++ b/flask-project/users.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,6 +681,30 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mithun@qwe.com</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mithun@1234</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
